--- a/trunk/PoissonArrival/results/lognor.xlsx
+++ b/trunk/PoissonArrival/results/lognor.xlsx
@@ -10,23 +10,14 @@
     <sheet name="Chart1" sheetId="2" r:id="rId1"/>
     <sheet name="lognor" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
     <t>Number</t>
-  </si>
-  <si>
-    <t>mean=1 stdd=10</t>
-  </si>
-  <si>
-    <t>mean=1 stdd=1.5</t>
-  </si>
-  <si>
-    <t>mean=1 stdd=0.125</t>
   </si>
 </sst>
 </file>
@@ -568,6 +559,32 @@
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Log-normal Probability Density Function </a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="7.3167680096041077E-2"/>
+          <c:y val="2.2965600423869036E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="1"/>
+    </c:title>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
@@ -581,7 +598,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>mean=1 stdd=10</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1215,7 +1232,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>mean=1 stdd=1.5</c:v>
+                  <c:v>1.5</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1849,7 +1866,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>mean=1 stdd=0.125</c:v>
+                  <c:v>0.125</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2474,38 +2491,57 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="60410880"/>
-        <c:axId val="60417536"/>
+        <c:axId val="104733312"/>
+        <c:axId val="124445056"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="60410880"/>
+        <c:axId val="104733312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="5"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="60417536"/>
+        <c:crossAx val="124445056"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="60417536"/>
+        <c:axId val="124445056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1.2"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:axPos val="l"/>
-        <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="60410880"/>
+        <c:crossAx val="104733312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="25400">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.73016736043845121"/>
+          <c:y val="0.20327531875250596"/>
+          <c:w val="7.1960406667977914E-2"/>
+          <c:h val="0.11325953545045372"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="1"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
@@ -2516,7 +2552,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="90" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -2526,7 +2562,7 @@
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
-    <xdr:pos x="0" y="0"/>
+    <xdr:pos x="4570" y="12989"/>
     <xdr:ext cx="9319347" cy="6083011"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2838,23 +2874,29 @@
   <dimension ref="A1:D101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:D1048576"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.140625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
+      <c r="B1">
+        <v>10</v>
+      </c>
+      <c r="C1">
+        <v>1.5</v>
+      </c>
+      <c r="D1">
+        <v>0.125</v>
       </c>
     </row>
     <row r="2" spans="1:4">

--- a/trunk/PoissonArrival/results/lognor.xlsx
+++ b/trunk/PoissonArrival/results/lognor.xlsx
@@ -565,12 +565,29 @@
           <a:bodyPr/>
           <a:lstStyle/>
           <a:p>
-            <a:pPr>
+            <a:pPr algn="l">
               <a:defRPr/>
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Log-normal Probability Density Function </a:t>
+              <a:t>Log-normal Probability Density Function</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l">
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>with</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> (µ = 1)</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t> </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -579,14 +596,24 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="7.3167680096041077E-2"/>
-          <c:y val="2.2965600423869036E-2"/>
+          <c:x val="7.3167680096041104E-2"/>
+          <c:y val="2.2965600423869043E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="1"/>
     </c:title>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="4.3527513247441051E-2"/>
+          <c:y val="2.5267421018965772E-2"/>
+          <c:w val="0.93666487576865631"/>
+          <c:h val="0.90900739781664053"/>
+        </c:manualLayout>
+      </c:layout>
       <c:scatterChart>
         <c:scatterStyle val="smoothMarker"/>
         <c:ser>
@@ -597,9 +624,6 @@
               <c:f>lognor!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>10</c:v>
-                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
@@ -1231,9 +1255,6 @@
               <c:f>lognor!$C$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>1.5</c:v>
-                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
@@ -1865,9 +1886,6 @@
               <c:f>lognor!$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>0.125</c:v>
-                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
@@ -2491,11 +2509,11 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="104733312"/>
-        <c:axId val="124445056"/>
+        <c:axId val="58890112"/>
+        <c:axId val="58891648"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="104733312"/>
+        <c:axId val="58890112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="5"/>
@@ -2504,12 +2522,12 @@
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="124445056"/>
+        <c:crossAx val="58891648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="124445056"/>
+        <c:axId val="58891648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.2"/>
@@ -2518,7 +2536,7 @@
         <c:axPos val="l"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="104733312"/>
+        <c:crossAx val="58890112"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2536,15 +2554,21 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="0.73016736043845121"/>
-          <c:y val="0.20327531875250596"/>
-          <c:w val="7.1960406667977914E-2"/>
-          <c:h val="0.11325953545045372"/>
+          <c:y val="0.19701197318235986"/>
+          <c:w val="7.19604066679779E-2"/>
+          <c:h val="0.12578622659074593"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="1"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
+  <c:spPr>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+  <c:userShapes r:id="rId1"/>
 </c:chartSpace>
 </file>
 
@@ -2552,7 +2576,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" workbookViewId="0" zoomToFit="1"/>
+    <sheetView tabSelected="1" zoomScale="135" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -2584,6 +2608,85 @@
     <xdr:clientData/>
   </xdr:absoluteAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.78082</cdr:x>
+      <cdr:y>0.18229</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.96252</cdr:x>
+      <cdr:y>0.33075</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="2" name="TextBox 1"/>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="7276764" y="1108844"/>
+          <a:ext cx="1693334" cy="903112"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="square" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="150000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="el-GR" sz="1100"/>
+            <a:t>σ</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t> = 10</a:t>
+          </a:r>
+        </a:p>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="150000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="el-GR" sz="1100"/>
+            <a:t>σ</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t> = 1.5</a:t>
+          </a:r>
+        </a:p>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="150000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="el-GR" sz="1100"/>
+            <a:t>σ</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t> = 0.125</a:t>
+          </a:r>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2871,10 +2974,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D101"/>
+  <dimension ref="A1:L101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="B1" sqref="B1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2885,21 +2988,12 @@
     <col min="4" max="4" width="18.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:12">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1">
-        <v>10</v>
-      </c>
-      <c r="C1">
-        <v>1.5</v>
-      </c>
-      <c r="D1">
-        <v>0.125</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2">
         <v>0.05</v>
       </c>
@@ -2913,7 +3007,7 @@
         <v>8.3269394212066799E-221</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:12">
       <c r="A3">
         <v>0.1</v>
       </c>
@@ -2927,7 +3021,7 @@
         <v>8.3917716194307198E-151</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:12">
       <c r="A4">
         <v>0.15</v>
       </c>
@@ -2941,7 +3035,7 @@
         <v>4.8151113097130401E-116</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:12">
       <c r="A5">
         <v>0.2</v>
       </c>
@@ -2955,7 +3049,7 @@
         <v>3.7420016141033997E-94</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:12">
       <c r="A6">
         <v>0.25</v>
       </c>
@@ -2968,8 +3062,11 @@
       <c r="D6" s="1">
         <v>9.3016780830702804E-79</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="L6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
       <c r="A7">
         <v>0.3</v>
       </c>
@@ -2982,8 +3079,11 @@
       <c r="D7" s="1">
         <v>3.3128244468526797E-67</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="L7">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
       <c r="A8">
         <v>0.35</v>
       </c>
@@ -2996,8 +3096,11 @@
       <c r="D8" s="1">
         <v>3.6825180832446002E-58</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
+      <c r="L8">
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
       <c r="A9">
         <v>0.4</v>
       </c>
@@ -3011,7 +3114,7 @@
         <v>7.3830591589719795E-51</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:12">
       <c r="A10">
         <v>0.45</v>
       </c>
@@ -3025,7 +3128,7 @@
         <v>7.9025225772498404E-45</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:12">
       <c r="A11">
         <v>0.5</v>
       </c>
@@ -3039,7 +3142,7 @@
         <v>9.2178139206901298E-40</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:12">
       <c r="A12">
         <v>0.55000000000000004</v>
       </c>
@@ -3053,7 +3156,7 @@
         <v>1.9158467127101101E-35</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:12">
       <c r="A13">
         <v>0.6</v>
       </c>
@@ -3067,7 +3170,7 @@
         <v>1.00849227789648E-31</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:12">
       <c r="A14">
         <v>0.65</v>
       </c>
@@ -3081,7 +3184,7 @@
         <v>1.7422831930352E-28</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:12">
       <c r="A15">
         <v>0.7</v>
       </c>
@@ -3095,7 +3198,7 @@
         <v>1.2016124521012599E-25</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:12">
       <c r="A16">
         <v>0.75</v>
       </c>
